--- a/analysis_results.xlsx
+++ b/analysis_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Top 20 Numbers</t>
   </si>
@@ -36,52 +36,67 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>(2, 9)</t>
-  </si>
-  <si>
-    <t>(2, 21)</t>
-  </si>
-  <si>
-    <t>(2, 29)</t>
-  </si>
-  <si>
-    <t>(2, 33)</t>
-  </si>
-  <si>
-    <t>(2, 34)</t>
-  </si>
-  <si>
-    <t>(2, 38)</t>
-  </si>
-  <si>
-    <t>(2, 39)</t>
-  </si>
-  <si>
-    <t>(2, 44)</t>
-  </si>
-  <si>
-    <t>(2, 48)</t>
-  </si>
-  <si>
-    <t>(2, 51)</t>
+    <t>(50, 76)</t>
+  </si>
+  <si>
+    <t>(64, 76)</t>
+  </si>
+  <si>
+    <t>(33, 59)</t>
+  </si>
+  <si>
+    <t>(7, 79)</t>
+  </si>
+  <si>
+    <t>(10, 64)</t>
+  </si>
+  <si>
+    <t>(10, 76)</t>
+  </si>
+  <si>
+    <t>(28, 76)</t>
+  </si>
+  <si>
+    <t>(60, 76)</t>
+  </si>
+  <si>
+    <t>(10, 59)</t>
+  </si>
+  <si>
+    <t>(21, 67)</t>
   </si>
   <si>
     <t>Consecutive Sets</t>
   </si>
   <si>
-    <t>((33, 34), 1)</t>
-  </si>
-  <si>
-    <t>((38, 39), 1)</t>
-  </si>
-  <si>
-    <t>((66, 67), 1)</t>
-  </si>
-  <si>
-    <t>((67, 68), 1)</t>
-  </si>
-  <si>
-    <t>((75, 76), 1)</t>
+    <t>((10, 11), 5)</t>
+  </si>
+  <si>
+    <t>((55, 56), 4)</t>
+  </si>
+  <si>
+    <t>((59, 60), 4)</t>
+  </si>
+  <si>
+    <t>((25, 26), 4)</t>
+  </si>
+  <si>
+    <t>((33, 34), 3)</t>
+  </si>
+  <si>
+    <t>((73, 74), 3)</t>
+  </si>
+  <si>
+    <t>((64, 65), 3)</t>
+  </si>
+  <si>
+    <t>((22, 23), 3)</t>
+  </si>
+  <si>
+    <t>((27, 28), 3)</t>
+  </si>
+  <si>
+    <t>((9, 10), 3)</t>
   </si>
   <si>
     <t>Range</t>
@@ -108,64 +123,64 @@
     <t>Cold Numbers</t>
   </si>
   <si>
-    <t>(2, 1)</t>
-  </si>
-  <si>
-    <t>(9, 1)</t>
-  </si>
-  <si>
-    <t>(21, 1)</t>
-  </si>
-  <si>
-    <t>(29, 1)</t>
-  </si>
-  <si>
-    <t>(33, 1)</t>
-  </si>
-  <si>
-    <t>(34, 1)</t>
-  </si>
-  <si>
-    <t>(38, 1)</t>
-  </si>
-  <si>
-    <t>(39, 1)</t>
-  </si>
-  <si>
-    <t>(44, 1)</t>
-  </si>
-  <si>
-    <t>(48, 1)</t>
-  </si>
-  <si>
-    <t>(78, 1)</t>
-  </si>
-  <si>
-    <t>(76, 1)</t>
-  </si>
-  <si>
-    <t>(75, 1)</t>
-  </si>
-  <si>
-    <t>(73, 1)</t>
-  </si>
-  <si>
-    <t>(68, 1)</t>
-  </si>
-  <si>
-    <t>(67, 1)</t>
-  </si>
-  <si>
-    <t>(66, 1)</t>
-  </si>
-  <si>
-    <t>(63, 1)</t>
-  </si>
-  <si>
-    <t>(60, 1)</t>
-  </si>
-  <si>
-    <t>(51, 1)</t>
+    <t>(59, 12)</t>
+  </si>
+  <si>
+    <t>(10, 12)</t>
+  </si>
+  <si>
+    <t>(76, 12)</t>
+  </si>
+  <si>
+    <t>(50, 11)</t>
+  </si>
+  <si>
+    <t>(33, 10)</t>
+  </si>
+  <si>
+    <t>(60, 10)</t>
+  </si>
+  <si>
+    <t>(64, 10)</t>
+  </si>
+  <si>
+    <t>(23, 10)</t>
+  </si>
+  <si>
+    <t>(71, 9)</t>
+  </si>
+  <si>
+    <t>(18, 8)</t>
+  </si>
+  <si>
+    <t>(52, 4)</t>
+  </si>
+  <si>
+    <t>(54, 4)</t>
+  </si>
+  <si>
+    <t>(20, 4)</t>
+  </si>
+  <si>
+    <t>(58, 4)</t>
+  </si>
+  <si>
+    <t>(78, 3)</t>
+  </si>
+  <si>
+    <t>(36, 3)</t>
+  </si>
+  <si>
+    <t>(45, 3)</t>
+  </si>
+  <si>
+    <t>(38, 3)</t>
+  </si>
+  <si>
+    <t>(30, 2)</t>
+  </si>
+  <si>
+    <t>(43, 2)</t>
   </si>
 </sst>
 </file>
@@ -539,34 +554,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -574,127 +589,127 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -717,22 +732,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -742,77 +757,77 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -849,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -857,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -865,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -873,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -881,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -889,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -897,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -905,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -913,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +938,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -957,6 +972,31 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -974,42 +1014,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1027,90 +1067,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
